--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ055.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ055.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB1347-0FDF-4F6E-BE23-521D0BF1ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -254,15 +255,6 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>1:更生程序開始;
-2:更生撤回;
-3:更生方案認可確定;
-4:更生方案履行完畢;
-5:更生裁定免責確定;
-6:更生調查程序;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Y;N</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -389,10 +381,6 @@
   </si>
   <si>
     <t>CustId= , AND ClaimDate=</t>
-  </si>
-  <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3位文數字</t>
@@ -595,11 +583,26 @@
     <t>checkCaseStatus</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:更生程序開始
+2:更生撤回
+3:更生方案認可確定
+4:更生方案履行完畢
+5:更生裁定免責確定
+6:更生調查程序</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -853,8 +856,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,6 +948,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -980,6 +1000,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1155,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1178,10 +1215,10 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1206,10 +1243,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1233,7 +1270,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="10"/>
@@ -1246,7 +1283,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
@@ -1259,7 +1296,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="10"/>
@@ -1268,11 +1305,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
@@ -1281,11 +1318,11 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
@@ -1315,12 +1352,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="48.6">
       <c r="A11" s="19">
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>18</v>
@@ -1333,7 +1370,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1341,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
@@ -1360,20 +1397,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="14">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="97.2">
@@ -1381,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>25</v>
@@ -1394,7 +1431,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="97.2">
@@ -1402,20 +1439,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="14">
         <v>8</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1423,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
@@ -1442,20 +1479,20 @@
         <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="14">
         <v>4</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64.8">
@@ -1463,20 +1500,20 @@
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="14">
         <v>4</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="97.2">
@@ -1484,20 +1521,20 @@
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="14">
         <v>40</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
@@ -1505,20 +1542,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14">
         <v>8</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -1526,20 +1563,20 @@
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14">
         <v>8</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -1547,20 +1584,20 @@
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="14">
         <v>3</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
@@ -1568,13 +1605,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="14">
         <v>5</v>
@@ -1583,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -1591,20 +1628,20 @@
         <v>14</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="14">
         <v>9</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1612,20 +1649,20 @@
         <v>15</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="14">
         <v>9</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -1633,7 +1670,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>36</v>
@@ -1646,7 +1683,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1654,20 +1691,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="14">
         <v>8</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1675,7 +1712,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>38</v>
@@ -1688,7 +1725,7 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1696,20 +1733,20 @@
         <v>19</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="81">
@@ -1717,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>40</v>
@@ -1730,7 +1767,7 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1738,20 +1775,20 @@
         <v>21</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="14">
         <v>10</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1765,7 +1802,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="14">
         <v>8</v>
@@ -1776,10 +1813,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>19</v>
@@ -2243,10 +2280,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -2272,76 +2309,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
